--- a/Data/Asclepias-TIDY.xlsx
+++ b/Data/Asclepias-TIDY.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Num.Axillary.Shoots.Tot</t>
+          <t>Tot.Axillary.Shoots</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
